--- a/data_statistic/arrive_time_list.xlsx
+++ b/data_statistic/arrive_time_list.xlsx
@@ -9,16 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="一小时透视" sheetId="5" r:id="rId1"/>
     <sheet name="半小时透视" sheetId="6" r:id="rId2"/>
     <sheet name="arrive_time_list" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">一小时透视!$D$4:$D$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">一小时透视!$E$4:$E$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">一小时透视!$D$4:$D$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">一小时透视!$E$4:$E$23</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -116,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -737,10 +743,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,6 +1234,830 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>拼车分时段到达人数（一小时）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>一小时透视!$D$4:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8时</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9时</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10时</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11时</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12时</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13时</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14时</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15时</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16时</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17时</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18时</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19时</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20时</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21时</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22时</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23时</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0时</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1时</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2时</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>一小时透视!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-629F-478E-B3FB-6FEFE5470F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="354694272"/>
+        <c:axId val="354695520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354694272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354695520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354695520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354694272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>分时段</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>拼车</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>乘客</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>人数</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>一小时透视!$D$4:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8时</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9时</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10时</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11时</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12时</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13时</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14时</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15时</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16时</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17时</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18时</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19时</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20时</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21时</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22时</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23时</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0时</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1时</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2时</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>一小时透视!$F$4:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13C8-4228-8B4A-CCD52EC25AB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="317378192"/>
+        <c:axId val="317379440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="317378192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317379440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="317379440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317378192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1895,6 +2725,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2412,6 +3322,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2954,6 +4870,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7575,7 +9551,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -7771,7 +9747,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8251,10 +10227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E24"/>
+  <dimension ref="A3:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X19:X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8264,7 +10240,7 @@
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -8272,7 +10248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -8285,8 +10261,12 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>E4/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -8299,8 +10279,12 @@
       <c r="E5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" ref="F5:F23" si="0">E5/8</f>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -8313,8 +10297,12 @@
       <c r="E6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -8327,8 +10315,12 @@
       <c r="E7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -8341,8 +10333,12 @@
       <c r="E8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8355,8 +10351,12 @@
       <c r="E9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -8369,8 +10369,12 @@
       <c r="E10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -8383,8 +10387,12 @@
       <c r="E11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -8397,8 +10405,12 @@
       <c r="E12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -8411,8 +10423,12 @@
       <c r="E13">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -8425,8 +10441,12 @@
       <c r="E14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -8439,8 +10459,12 @@
       <c r="E15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -8453,8 +10477,12 @@
       <c r="E16">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -8467,8 +10495,12 @@
       <c r="E17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -8481,8 +10513,12 @@
       <c r="E18">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -8495,8 +10531,12 @@
       <c r="E19">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -8509,8 +10549,12 @@
       <c r="E20">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -8523,8 +10567,12 @@
       <c r="E21">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -8537,8 +10585,12 @@
       <c r="E22">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -8551,12 +10603,20 @@
       <c r="E23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f>G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="5">
+        <v>916</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E4:E23)</f>
         <v>916</v>
       </c>
     </row>
@@ -9141,7 +11201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
